--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Baseline</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>CSV1</t>
+  </si>
+  <si>
+    <t>CSV2</t>
+  </si>
+  <si>
+    <t>CSV3</t>
+  </si>
+  <si>
+    <t>no OPT</t>
+  </si>
+  <si>
+    <t>OPT1</t>
   </si>
 </sst>
 </file>
@@ -356,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -378,25 +393,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>341</v>
       </c>
       <c r="C2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+      <c r="D2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>267</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C3">
+        <v>196</v>
+      </c>
+      <c r="D3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>242</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C4">
+        <v>207</v>
+      </c>
+      <c r="D4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -406,15 +441,58 @@
       </c>
       <c r="C10">
         <f t="shared" ref="C10:E10" si="0">AVERAGE(C2:C9)</f>
-        <v>192</v>
-      </c>
-      <c r="D10" t="e">
+        <v>180</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>275.66666666666669</v>
       </c>
       <c r="E10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>398</v>
+      </c>
+      <c r="I12">
+        <v>338</v>
+      </c>
+      <c r="J12">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>251</v>
+      </c>
+      <c r="I13">
+        <v>295</v>
+      </c>
+      <c r="J13">
+        <v>281</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(H13:J13)</f>
+        <v>275.66666666666669</v>
       </c>
     </row>
   </sheetData>
